--- a/BalanceSheet/PTON_bal.xlsx
+++ b/BalanceSheet/PTON_bal.xlsx
@@ -240,19 +240,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-155000000.0</v>
+        <v>523000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-118000000.0</v>
+        <v>364000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-50600000.0</v>
+        <v>245000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>48000000.0</v>
+        <v>194000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-25100000.0</v>
+        <v>244000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>205600000.0</v>
@@ -693,19 +693,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>175500000.0</v>
+        <v>721000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>156400000.0</v>
+        <v>275000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>69400000.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-34000000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>80500000.0</v>
+        <v>183000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>90700000.0</v>
